--- a/data/balance_sheet/3digits/total/291_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/291_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>291-Manufacture of motor vehicles</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>291-Manufacture of motor vehicles</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,12 +915,17 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
         <v>8490818.82921</v>
@@ -1490,32 +940,37 @@
         <v>12946971.80188</v>
       </c>
       <c r="G5" s="32" t="n">
-        <v>13397782.60234</v>
+        <v>14601723.58737</v>
       </c>
       <c r="H5" s="33" t="n">
-        <v>14887910.84175</v>
+        <v>16899862.00116</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>16375120.23905</v>
+        <v>22737476.05053</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>24807658.34221</v>
+        <v>25846453.83725</v>
       </c>
       <c r="K5" s="32" t="n">
         <v>35315063.11043</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>42591815.82827</v>
+        <v>42592598.62753</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>44758710.29577</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>44763573.72005</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>67562255.728</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>1952457.4567</v>
@@ -1530,32 +985,37 @@
         <v>3694138.52011</v>
       </c>
       <c r="G6" s="23" t="n">
-        <v>4760391.115759999</v>
+        <v>4819834.501429999</v>
       </c>
       <c r="H6" s="33" t="n">
-        <v>4976464.367269999</v>
+        <v>5182909.4373</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>6020126.11642</v>
+        <v>7257057.03207</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>7454065.019280001</v>
+        <v>7477929.165839999</v>
       </c>
       <c r="K6" s="23" t="n">
         <v>10602043.95885</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>8728199.742149999</v>
+        <v>8728250.229240002</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>12925829.27409</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>12925940.39553</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>24071046.916</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
         <v>1427.38065</v>
@@ -1579,23 +1039,28 @@
         <v>8857.108960000001</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>5634.14477</v>
+        <v>5660.539960000001</v>
       </c>
       <c r="K7" s="22" t="n">
         <v>9338.410390000001</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>5968.817369999999</v>
+        <v>6018.1801</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>13594.40297</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>13673.72101</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>30827.321</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>15077.98255</v>
@@ -1630,12 +1095,17 @@
       <c r="M8" s="22" t="n">
         <v>92737.36616000001</v>
       </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+      <c r="N8" s="22" t="n">
+        <v>89810.47100000001</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
         <v>1934763.70162</v>
@@ -1650,32 +1120,37 @@
         <v>2114035.24128</v>
       </c>
       <c r="G9" s="22" t="n">
-        <v>4733858.305020001</v>
+        <v>4793301.690690001</v>
       </c>
       <c r="H9" s="21" t="n">
-        <v>4929188.616140001</v>
+        <v>5135633.686170001</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>5700654.66462</v>
+        <v>6937585.580270001</v>
       </c>
       <c r="J9" s="21" t="n">
-        <v>7238709.450360001</v>
+        <v>7262509.931029999</v>
       </c>
       <c r="K9" s="22" t="n">
         <v>10420342.5838</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>8643451.103449998</v>
+        <v>8643452.227810001</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>12833343.75415</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>12833375.55755</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>24135334.518</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>5761.01994</v>
@@ -1710,12 +1185,17 @@
       <c r="M10" s="22" t="n">
         <v>19109.72344</v>
       </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+      <c r="N10" s="22" t="n">
+        <v>200184.143</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>6949.41182</v>
@@ -1739,23 +1219,28 @@
         <v>5833.335099999999</v>
       </c>
       <c r="J11" s="21" t="n">
-        <v>9122.02217</v>
+        <v>9159.292870000001</v>
       </c>
       <c r="K11" s="22" t="n">
         <v>2666.33457</v>
       </c>
       <c r="L11" s="22" t="n">
-        <v>2722.820130000001</v>
+        <v>2722.82013</v>
       </c>
       <c r="M11" s="22" t="n">
-        <v>5263.474250000001</v>
-      </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+        <v>5263.47425</v>
+      </c>
+      <c r="N11" s="22" t="n">
+        <v>15258.749</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>22744.15097</v>
@@ -1790,12 +1275,17 @@
       <c r="M12" s="23" t="n">
         <v>1.19701</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>7.023</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>0.7331299999999999</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>1.19701</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>2.175</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>0</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>22743.41784</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>4.848</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,12 +1500,17 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>3461801.57523</v>
@@ -2007,75 +1522,85 @@
         <v>5113308.29415</v>
       </c>
       <c r="F18" s="33" t="n">
-        <v>4357431.62171</v>
+        <v>4357431.621709999</v>
       </c>
       <c r="G18" s="23" t="n">
-        <v>4286935.69174</v>
+        <v>4914060.924910001</v>
       </c>
       <c r="H18" s="33" t="n">
-        <v>4830898.5224</v>
+        <v>5788374.52682</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>4277144.29261</v>
+        <v>7085405.364010001</v>
       </c>
       <c r="J18" s="33" t="n">
-        <v>8010494.91123</v>
+        <v>8289515.941980001</v>
       </c>
       <c r="K18" s="23" t="n">
         <v>12098599.80012</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>14338326.9683</v>
+        <v>14338567.53112</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>15245132.11941</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>15245727.51221</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>21261156.138</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
-        <v>3181168.107700001</v>
+        <v>3181168.1077</v>
       </c>
       <c r="D19" s="22" t="n">
         <v>3601491.24708</v>
       </c>
       <c r="E19" s="22" t="n">
-        <v>4692750.799489999</v>
+        <v>4692750.79949</v>
       </c>
       <c r="F19" s="21" t="n">
         <v>4099366.80937</v>
       </c>
       <c r="G19" s="22" t="n">
-        <v>4096762.71547</v>
+        <v>4723524.7565</v>
       </c>
       <c r="H19" s="21" t="n">
-        <v>4718105.87176</v>
+        <v>5671958.13905</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>4145016.70243</v>
+        <v>6906016.400530001</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>7753020.69894</v>
+        <v>8031014.86128</v>
       </c>
       <c r="K19" s="22" t="n">
         <v>11647939.10661</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>14019500.2382</v>
+        <v>14019740.80102</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>15017505.37377</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>15018006.61922</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>21137527.151</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>280015.04364</v>
@@ -2110,12 +1635,17 @@
       <c r="M20" s="22" t="n">
         <v>154559.17662</v>
       </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+      <c r="N20" s="22" t="n">
+        <v>87457.56200000001</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>5722.00525</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>8664.76058</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>2768.532</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,12 +1725,17 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>2385.00531</v>
@@ -2210,16 +1750,16 @@
         <v>2089.71458</v>
       </c>
       <c r="G23" s="22" t="n">
-        <v>2270.16603</v>
+        <v>2353.09096</v>
       </c>
       <c r="H23" s="21" t="n">
-        <v>2985.22995</v>
+        <v>3173.61295</v>
       </c>
       <c r="I23" s="22" t="n">
-        <v>4847.831770000001</v>
+        <v>5264.50478</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>4035.81656</v>
+        <v>5062.684969999999</v>
       </c>
       <c r="K23" s="22" t="n">
         <v>5316.762970000001</v>
@@ -2228,14 +1768,19 @@
         <v>5257.98131</v>
       </c>
       <c r="M23" s="22" t="n">
-        <v>22690.85235</v>
-      </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+        <v>22699.1644</v>
+      </c>
+      <c r="N23" s="22" t="n">
+        <v>11638.991</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>482.89796</v>
@@ -2250,13 +1795,13 @@
         <v>1532.32254</v>
       </c>
       <c r="G24" s="22" t="n">
-        <v>1020.30395</v>
+        <v>1300.57116</v>
       </c>
       <c r="H24" s="21" t="n">
-        <v>21240.26425</v>
+        <v>24675.61838</v>
       </c>
       <c r="I24" s="22" t="n">
-        <v>4738.192639999999</v>
+        <v>51582.89293</v>
       </c>
       <c r="J24" s="21" t="n">
         <v>75570.32225</v>
@@ -2268,14 +1813,19 @@
         <v>99691.32309000001</v>
       </c>
       <c r="M24" s="22" t="n">
-        <v>54317.49336</v>
-      </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+        <v>54403.32866</v>
+      </c>
+      <c r="N24" s="22" t="n">
+        <v>20687.656</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>22196.59199</v>
@@ -2296,10 +1846,10 @@
         <v>54458.58761</v>
       </c>
       <c r="I25" s="22" t="n">
-        <v>63799.04203</v>
+        <v>68332.49844</v>
       </c>
       <c r="J25" s="21" t="n">
-        <v>76762.65828</v>
+        <v>77112.27828</v>
       </c>
       <c r="K25" s="22" t="n">
         <v>82599.47059</v>
@@ -2310,12 +1860,17 @@
       <c r="M25" s="22" t="n">
         <v>237139.98172</v>
       </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+      <c r="N25" s="22" t="n">
+        <v>248435.294</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>18724.06612</v>
@@ -2336,10 +1891,10 @@
         <v>48872.11122999999</v>
       </c>
       <c r="I26" s="22" t="n">
-        <v>60229.53752000001</v>
+        <v>64762.99393</v>
       </c>
       <c r="J26" s="21" t="n">
-        <v>69071.88679999999</v>
+        <v>69421.5068</v>
       </c>
       <c r="K26" s="22" t="n">
         <v>74455.72785</v>
@@ -2350,18 +1905,23 @@
       <c r="M26" s="22" t="n">
         <v>232415.99783</v>
       </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+      <c r="N26" s="22" t="n">
+        <v>241821.984</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>62722.74922</v>
       </c>
       <c r="D27" s="23" t="n">
-        <v>56750.76106999999</v>
+        <v>56750.76107</v>
       </c>
       <c r="E27" s="23" t="n">
         <v>127844.93107</v>
@@ -2370,32 +1930,37 @@
         <v>208169.81729</v>
       </c>
       <c r="G27" s="23" t="n">
-        <v>124834.55074</v>
+        <v>125860.33557</v>
       </c>
       <c r="H27" s="33" t="n">
-        <v>146362.8884</v>
+        <v>147438.91511</v>
       </c>
       <c r="I27" s="23" t="n">
-        <v>139682.5461</v>
+        <v>147696.39759</v>
       </c>
       <c r="J27" s="33" t="n">
-        <v>91085.62751999999</v>
+        <v>101569.78264</v>
       </c>
       <c r="K27" s="23" t="n">
         <v>128534.35159</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>859484.6679700001</v>
+        <v>859490.7314399999</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>582111.2031100001</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>582449.5073200001</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>699375.845</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>17486.8566</v>
@@ -2428,14 +1993,19 @@
         <v>142612.49126</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>13796.73551</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>14135.03972</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>11114.341</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>359.39252</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>1426.18966</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>37023.682</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>0</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>102511.23288</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>1832.23587</v>
@@ -2530,16 +2110,16 @@
         <v>2623.4705</v>
       </c>
       <c r="G31" s="22" t="n">
-        <v>4540.54128</v>
+        <v>4600.03107</v>
       </c>
       <c r="H31" s="21" t="n">
-        <v>5057.496010000001</v>
+        <v>5180.32214</v>
       </c>
       <c r="I31" s="22" t="n">
-        <v>6012.974909999999</v>
+        <v>6621.0399</v>
       </c>
       <c r="J31" s="21" t="n">
-        <v>6514.83893</v>
+        <v>7161.69989</v>
       </c>
       <c r="K31" s="22" t="n">
         <v>9834.264090000001</v>
@@ -2550,12 +2130,17 @@
       <c r="M31" s="22" t="n">
         <v>11536.48895</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>16190.331</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>43044.26422999999</v>
@@ -2570,32 +2155,37 @@
         <v>116759.45387</v>
       </c>
       <c r="G32" s="22" t="n">
-        <v>56800.12388</v>
+        <v>57766.41892</v>
       </c>
       <c r="H32" s="21" t="n">
-        <v>64615.21631</v>
+        <v>65568.41689000001</v>
       </c>
       <c r="I32" s="22" t="n">
-        <v>57737.41278</v>
+        <v>65143.19928</v>
       </c>
       <c r="J32" s="21" t="n">
-        <v>68746.88134000001</v>
+        <v>78584.1755</v>
       </c>
       <c r="K32" s="22" t="n">
         <v>108792.48768</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>703631.59882</v>
+        <v>703637.6622900001</v>
       </c>
       <c r="M32" s="22" t="n">
         <v>452840.55611</v>
       </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+      <c r="N32" s="22" t="n">
+        <v>635047.491</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>0</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>0</v>
@@ -2710,12 +2310,17 @@
       <c r="M35" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
         <v>2431451.46201</v>
@@ -2730,32 +2335,37 @@
         <v>3713909.36935</v>
       </c>
       <c r="G36" s="23" t="n">
-        <v>3284173.11476</v>
+        <v>3707159.72319</v>
       </c>
       <c r="H36" s="33" t="n">
-        <v>3834813.96239</v>
+        <v>4469157.011570001</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>4668863.33137</v>
+        <v>6468215.490990001</v>
       </c>
       <c r="J36" s="33" t="n">
-        <v>7069098.42228</v>
+        <v>7499159.55009</v>
       </c>
       <c r="K36" s="23" t="n">
         <v>9224480.108359998</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>14451799.26884</v>
+        <v>14452207.99686</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>11552521.98908</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>11556239.62377</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>16878674.451</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>1086801.245</v>
@@ -2770,32 +2380,37 @@
         <v>1501992.43275</v>
       </c>
       <c r="G37" s="22" t="n">
-        <v>1225750.91425</v>
+        <v>1462498.85424</v>
       </c>
       <c r="H37" s="21" t="n">
-        <v>1474467.18167</v>
+        <v>1826090.98304</v>
       </c>
       <c r="I37" s="22" t="n">
-        <v>1466385.93184</v>
+        <v>2061572.74991</v>
       </c>
       <c r="J37" s="21" t="n">
-        <v>2405748.39188</v>
+        <v>2563992.64972</v>
       </c>
       <c r="K37" s="22" t="n">
         <v>3427556.06328</v>
       </c>
       <c r="L37" s="22" t="n">
-        <v>5177102.632879999</v>
+        <v>5177386.912409999</v>
       </c>
       <c r="M37" s="22" t="n">
-        <v>5114286.373869999</v>
-      </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+        <v>5114286.37387</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>7534756.122</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>202264.40564</v>
@@ -2810,16 +2425,16 @@
         <v>373523.09255</v>
       </c>
       <c r="G38" s="22" t="n">
-        <v>418700.81575</v>
+        <v>427166.57933</v>
       </c>
       <c r="H38" s="21" t="n">
-        <v>541367.86464</v>
+        <v>549573.1685800001</v>
       </c>
       <c r="I38" s="22" t="n">
-        <v>453014.1549799999</v>
+        <v>460114.38554</v>
       </c>
       <c r="J38" s="21" t="n">
-        <v>732920.3896</v>
+        <v>741679.34299</v>
       </c>
       <c r="K38" s="22" t="n">
         <v>844734.85768</v>
@@ -2828,14 +2443,19 @@
         <v>1450795.93077</v>
       </c>
       <c r="M38" s="22" t="n">
-        <v>1392045.4073</v>
-      </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+        <v>1392926.8344</v>
+      </c>
+      <c r="N38" s="22" t="n">
+        <v>1800297.428</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>339237.48186</v>
@@ -2850,16 +2470,16 @@
         <v>569289.17936</v>
       </c>
       <c r="G39" s="22" t="n">
-        <v>457420.92253</v>
+        <v>473857.58711</v>
       </c>
       <c r="H39" s="21" t="n">
-        <v>564497.2890499999</v>
+        <v>593674.1825000001</v>
       </c>
       <c r="I39" s="22" t="n">
-        <v>980189.1436500001</v>
+        <v>1402983.74482</v>
       </c>
       <c r="J39" s="21" t="n">
-        <v>1153137.92288</v>
+        <v>1170353.65123</v>
       </c>
       <c r="K39" s="22" t="n">
         <v>1046258.04906</v>
@@ -2868,14 +2488,19 @@
         <v>1954531.84069</v>
       </c>
       <c r="M39" s="22" t="n">
-        <v>1063289.95538</v>
-      </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+        <v>1063226.95538</v>
+      </c>
+      <c r="N39" s="22" t="n">
+        <v>1746922.836</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>365692.73763</v>
@@ -2890,32 +2515,37 @@
         <v>643349.75468</v>
       </c>
       <c r="G40" s="22" t="n">
-        <v>616268.9885999999</v>
+        <v>666771.99345</v>
       </c>
       <c r="H40" s="21" t="n">
-        <v>668063.6546300001</v>
+        <v>757396.4425100001</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>1042835.03856</v>
+        <v>1416733.93904</v>
       </c>
       <c r="J40" s="21" t="n">
-        <v>1718081.94378</v>
+        <v>1769712.69664</v>
       </c>
       <c r="K40" s="22" t="n">
         <v>1745199.39268</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>3176049.75883</v>
+        <v>3176050.30968</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>1144015.69167</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>1144025.88129</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>1969072.296</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>121488.87498</v>
@@ -2930,19 +2560,19 @@
         <v>177775.2285</v>
       </c>
       <c r="G41" s="22" t="n">
-        <v>193286.92638</v>
+        <v>194858.15906</v>
       </c>
       <c r="H41" s="21" t="n">
-        <v>203934.66073</v>
+        <v>204376.99745</v>
       </c>
       <c r="I41" s="22" t="n">
-        <v>249700.21794</v>
+        <v>284757.51004</v>
       </c>
       <c r="J41" s="21" t="n">
-        <v>292596.56049</v>
+        <v>376708.25019</v>
       </c>
       <c r="K41" s="22" t="n">
-        <v>895022.4284999999</v>
+        <v>895022.4285</v>
       </c>
       <c r="L41" s="22" t="n">
         <v>1234296.48819</v>
@@ -2950,12 +2580,17 @@
       <c r="M41" s="22" t="n">
         <v>1492182.5825</v>
       </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+      <c r="N41" s="22" t="n">
+        <v>1824736.11</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>11422.24669</v>
@@ -2990,12 +2625,17 @@
       <c r="M42" s="22" t="n">
         <v>44676.16194999999</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>41177.133</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>327388.9635900001</v>
@@ -3004,38 +2644,43 @@
         <v>408140.51808</v>
       </c>
       <c r="E43" s="22" t="n">
-        <v>500282.8089299999</v>
+        <v>500282.80893</v>
       </c>
       <c r="F43" s="21" t="n">
         <v>467890.70947</v>
       </c>
       <c r="G43" s="22" t="n">
-        <v>427040.29269</v>
+        <v>536302.29544</v>
       </c>
       <c r="H43" s="21" t="n">
-        <v>448928.71055</v>
+        <v>604490.63637</v>
       </c>
       <c r="I43" s="22" t="n">
-        <v>537995.6338200001</v>
+        <v>903309.9510600001</v>
       </c>
       <c r="J43" s="21" t="n">
-        <v>849167.1942500002</v>
+        <v>959266.93992</v>
       </c>
       <c r="K43" s="22" t="n">
         <v>1351127.50244</v>
       </c>
       <c r="L43" s="22" t="n">
-        <v>1561632.17131</v>
+        <v>1561756.06895</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>1391378.14031</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>1394267.15828</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>2044066.792</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>0</v>
@@ -3070,12 +2715,17 @@
       <c r="M44" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>0</v>
@@ -3110,12 +2760,17 @@
       <c r="M45" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,18 +2850,23 @@
       <c r="M47" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>30491.37849</v>
       </c>
       <c r="D48" s="46" t="n">
-        <v>56393.97236</v>
+        <v>56393.97236000001</v>
       </c>
       <c r="E48" s="46" t="n">
         <v>72350.76206000001</v>
@@ -3210,32 +2875,37 @@
         <v>120647.1604</v>
       </c>
       <c r="G48" s="46" t="n">
-        <v>113267.13239</v>
+        <v>116505.50717</v>
       </c>
       <c r="H48" s="45" t="n">
-        <v>77036.78994000002</v>
+        <v>95146.39366000002</v>
       </c>
       <c r="I48" s="46" t="n">
-        <v>116222.96614</v>
+        <v>138474.7913</v>
       </c>
       <c r="J48" s="45" t="n">
-        <v>138560.17322</v>
+        <v>211874.7918</v>
       </c>
       <c r="K48" s="46" t="n">
         <v>261877.30125</v>
       </c>
       <c r="L48" s="46" t="n">
-        <v>371026.52914</v>
+        <v>371097.7167399999</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>402611.69409</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>402612.18536</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>616063.512</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>14677.18509</v>
@@ -3250,32 +2920,37 @@
         <v>22446.46971</v>
       </c>
       <c r="G49" s="22" t="n">
-        <v>43706.84869000001</v>
+        <v>46901.91398</v>
       </c>
       <c r="H49" s="21" t="n">
-        <v>33460.58065</v>
+        <v>38545.14361</v>
       </c>
       <c r="I49" s="22" t="n">
-        <v>76657.58070999999</v>
+        <v>86101.9417</v>
       </c>
       <c r="J49" s="21" t="n">
-        <v>89038.32418000001</v>
+        <v>94959.64691</v>
       </c>
       <c r="K49" s="22" t="n">
         <v>147003.51189</v>
       </c>
       <c r="L49" s="22" t="n">
-        <v>208259.83384</v>
+        <v>208331.02144</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>210012.09447</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>210012.58574</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>247408.09</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>15814.1934</v>
@@ -3290,16 +2965,16 @@
         <v>98200.69069</v>
       </c>
       <c r="G50" s="22" t="n">
-        <v>69560.28369999999</v>
+        <v>69603.59319</v>
       </c>
       <c r="H50" s="21" t="n">
-        <v>43576.20929</v>
+        <v>56601.25005</v>
       </c>
       <c r="I50" s="22" t="n">
-        <v>39565.38543</v>
+        <v>52372.84959999999</v>
       </c>
       <c r="J50" s="21" t="n">
-        <v>49521.84904</v>
+        <v>116915.14489</v>
       </c>
       <c r="K50" s="22" t="n">
         <v>114873.78936</v>
@@ -3310,52 +2985,62 @@
       <c r="M50" s="22" t="n">
         <v>192599.59962</v>
       </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+      <c r="N50" s="22" t="n">
+        <v>368655.422</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>529150.0565899999</v>
       </c>
       <c r="D51" s="46" t="n">
-        <v>552871.75708</v>
+        <v>552871.7570799999</v>
       </c>
       <c r="E51" s="46" t="n">
-        <v>793099.3674499999</v>
+        <v>793099.36745</v>
       </c>
       <c r="F51" s="45" t="n">
-        <v>852548.58352</v>
+        <v>852548.5835200001</v>
       </c>
       <c r="G51" s="46" t="n">
-        <v>827689.93005</v>
+        <v>917811.5281999999</v>
       </c>
       <c r="H51" s="45" t="n">
-        <v>1022311.20918</v>
+        <v>1216812.61453</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>1153064.48659</v>
+        <v>1640610.47475</v>
       </c>
       <c r="J51" s="45" t="n">
-        <v>2044353.32278</v>
+        <v>2266403.739000001</v>
       </c>
       <c r="K51" s="46" t="n">
         <v>2999439.73994</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>3841977.45488</v>
+        <v>3841983.22514</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>4050502.81898</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>4050603.29885</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>4035931.843</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>290280.16162</v>
@@ -3364,38 +3049,43 @@
         <v>330810.77277</v>
       </c>
       <c r="E52" s="22" t="n">
-        <v>350945.80688</v>
+        <v>350945.8068799999</v>
       </c>
       <c r="F52" s="21" t="n">
         <v>362924.30916</v>
       </c>
       <c r="G52" s="22" t="n">
-        <v>392247.17583</v>
+        <v>399790.51072</v>
       </c>
       <c r="H52" s="21" t="n">
-        <v>476080.06371</v>
+        <v>521783.12507</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>735987.17891</v>
+        <v>813951.25992</v>
       </c>
       <c r="J52" s="21" t="n">
-        <v>1322305.5364</v>
+        <v>1450532.1715</v>
       </c>
       <c r="K52" s="22" t="n">
         <v>2002409.81801</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>2268462.44626</v>
+        <v>2268468.21652</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>2347624.03624</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>2347668.01108</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>1875667.614</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>92673.16752</v>
@@ -3416,7 +3106,7 @@
         <v>171740.79358</v>
       </c>
       <c r="I53" s="22" t="n">
-        <v>84013.22870000001</v>
+        <v>284940.11404</v>
       </c>
       <c r="J53" s="21" t="n">
         <v>346526.14716</v>
@@ -3430,12 +3120,17 @@
       <c r="M53" s="22" t="n">
         <v>814111.7174499999</v>
       </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+      <c r="N53" s="22" t="n">
+        <v>1106464.562</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>39902.99423</v>
@@ -3456,7 +3151,7 @@
         <v>101277.32923</v>
       </c>
       <c r="I54" s="22" t="n">
-        <v>54104.3354</v>
+        <v>57844.52788</v>
       </c>
       <c r="J54" s="21" t="n">
         <v>74835.86261</v>
@@ -3468,14 +3163,19 @@
         <v>175946.46002</v>
       </c>
       <c r="M54" s="22" t="n">
-        <v>115227.07006</v>
-      </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+        <v>115283.57512</v>
+      </c>
+      <c r="N54" s="22" t="n">
+        <v>94434.48299999999</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>99360.98612</v>
@@ -3490,16 +3190,16 @@
         <v>136991.73193</v>
       </c>
       <c r="G55" s="22" t="n">
-        <v>52944.27256999999</v>
+        <v>135497.54029</v>
       </c>
       <c r="H55" s="21" t="n">
-        <v>122475.64327</v>
+        <v>271242.3444000001</v>
       </c>
       <c r="I55" s="22" t="n">
-        <v>111907.21043</v>
+        <v>298226.4971800001</v>
       </c>
       <c r="J55" s="21" t="n">
-        <v>282103.13172</v>
+        <v>282857.64008</v>
       </c>
       <c r="K55" s="22" t="n">
         <v>375051.67892</v>
@@ -3508,14 +3208,19 @@
         <v>419224.22334</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>551163.95153</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>551163.9515</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>447348.428</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>1481.30013</v>
@@ -3530,19 +3235,19 @@
         <v>74962.50169000002</v>
       </c>
       <c r="G56" s="22" t="n">
-        <v>111520.28028</v>
+        <v>111545.27582</v>
       </c>
       <c r="H56" s="21" t="n">
-        <v>131893.73889</v>
+        <v>131925.38175</v>
       </c>
       <c r="I56" s="22" t="n">
-        <v>156370.27887</v>
+        <v>156438.15131</v>
       </c>
       <c r="J56" s="21" t="n">
-        <v>816.7019300000001</v>
+        <v>87055.51946000001</v>
       </c>
       <c r="K56" s="22" t="n">
-        <v>55187.80352999999</v>
+        <v>55187.80353000001</v>
       </c>
       <c r="L56" s="22" t="n">
         <v>58355.26042</v>
@@ -3550,12 +3255,17 @@
       <c r="M56" s="22" t="n">
         <v>199788.78487</v>
       </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+      <c r="N56" s="22" t="n">
+        <v>456672.835</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>1131.76112</v>
@@ -3576,10 +3286,10 @@
         <v>2463.30918</v>
       </c>
       <c r="I57" s="22" t="n">
-        <v>3535.17335</v>
+        <v>3544.56295</v>
       </c>
       <c r="J57" s="21" t="n">
-        <v>2135.87862</v>
+        <v>2294.99376</v>
       </c>
       <c r="K57" s="22" t="n">
         <v>2142.81673</v>
@@ -3590,12 +3300,17 @@
       <c r="M57" s="22" t="n">
         <v>4141.39054</v>
       </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+      <c r="N57" s="22" t="n">
+        <v>3914.361</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>0</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>0.06987</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>4319.68585</v>
@@ -3656,10 +3376,10 @@
         <v>16344.61973</v>
       </c>
       <c r="I59" s="22" t="n">
-        <v>7111.36897</v>
+        <v>25629.64951</v>
       </c>
       <c r="J59" s="21" t="n">
-        <v>15594.3523</v>
+        <v>22265.69239</v>
       </c>
       <c r="K59" s="22" t="n">
         <v>30567.39</v>
@@ -3670,11 +3390,16 @@
       <c r="M59" s="22" t="n">
         <v>18445.79842</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>51429.49</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,15 +3434,20 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
-        <v>6375123.24716</v>
+        <v>6375123.247159999</v>
       </c>
       <c r="D61" s="36" t="n">
         <v>6220395.65562</v>
@@ -3729,35 +3459,40 @@
         <v>7709607.22504</v>
       </c>
       <c r="G61" s="36" t="n">
-        <v>8864121.413450001</v>
+        <v>9337231.192039998</v>
       </c>
       <c r="H61" s="37" t="n">
-        <v>10345436.16945</v>
+        <v>11210623.69922</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>8457537.9636</v>
+        <v>11748361.18406</v>
       </c>
       <c r="J61" s="37" t="n">
-        <v>12311246.06726</v>
+        <v>13503341.4334</v>
       </c>
       <c r="K61" s="36" t="n">
         <v>15634156.28476</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>16361050.93859</v>
+        <v>16361363.75823</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>17668733.48043</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>17670439.72484</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>19491853.871</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
-        <v>33950.10189000001</v>
+        <v>33950.10189</v>
       </c>
       <c r="D62" s="36" t="n">
         <v>44261.19887</v>
@@ -3769,16 +3504,16 @@
         <v>60668.93057</v>
       </c>
       <c r="G62" s="36" t="n">
-        <v>388784.7859</v>
+        <v>389119.8878499999</v>
       </c>
       <c r="H62" s="37" t="n">
-        <v>276389.19981</v>
+        <v>276763.17966</v>
       </c>
       <c r="I62" s="36" t="n">
-        <v>349861.14344</v>
+        <v>350536.15698</v>
       </c>
       <c r="J62" s="37" t="n">
-        <v>240100.7813</v>
+        <v>240119.06399</v>
       </c>
       <c r="K62" s="36" t="n">
         <v>272052.49003</v>
@@ -3789,12 +3524,17 @@
       <c r="M62" s="36" t="n">
         <v>158597.58672</v>
       </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+      <c r="N62" s="36" t="n">
+        <v>204805.235</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>1623.91664</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>152213.00766</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>169317.975</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>32451.64222</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>16286.035</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>1235.69884</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,12 +3704,17 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>1110.24187</v>
@@ -3969,16 +3729,16 @@
         <v>1569.10265</v>
       </c>
       <c r="G67" s="22" t="n">
-        <v>1369.86485</v>
+        <v>1704.9668</v>
       </c>
       <c r="H67" s="21" t="n">
-        <v>1183.24285</v>
+        <v>1557.2227</v>
       </c>
       <c r="I67" s="22" t="n">
-        <v>974.7926</v>
+        <v>1649.80614</v>
       </c>
       <c r="J67" s="21" t="n">
-        <v>3381.7676</v>
+        <v>3400.05029</v>
       </c>
       <c r="K67" s="22" t="n">
         <v>4802.72576</v>
@@ -3989,12 +3749,17 @@
       <c r="M67" s="22" t="n">
         <v>6384.57906</v>
       </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+      <c r="N67" s="22" t="n">
+        <v>19201.225</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>36669.62831</v>
@@ -4069,12 +3839,17 @@
       <c r="M69" s="36" t="n">
         <v>160672.72443</v>
       </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+      <c r="N69" s="36" t="n">
+        <v>207445.05</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>0</v>
@@ -4109,12 +3884,17 @@
       <c r="M70" s="22" t="n">
         <v>3301.19318</v>
       </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+      <c r="N70" s="22" t="n">
+        <v>3165</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>0</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>0</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>0</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>36669.62831</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>157371.53125</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>204280.05</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>650733.28711</v>
@@ -4375,7 +4185,7 @@
         <v>806641.4785900001</v>
       </c>
       <c r="I77" s="23" t="n">
-        <v>807182.3608200001</v>
+        <v>808006.5018099999</v>
       </c>
       <c r="J77" s="33" t="n">
         <v>804007.7639299999</v>
@@ -4387,14 +4197,19 @@
         <v>366733.1618</v>
       </c>
       <c r="M77" s="23" t="n">
-        <v>455405.28263</v>
-      </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+        <v>455405.76826</v>
+      </c>
+      <c r="N77" s="23" t="n">
+        <v>584494.716</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>201.33089</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>23.51898</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>448.13</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>546353.25089</v>
@@ -4495,10 +4320,10 @@
         <v>521836.41367</v>
       </c>
       <c r="I80" s="22" t="n">
-        <v>524079.51551</v>
+        <v>524903.6565</v>
       </c>
       <c r="J80" s="21" t="n">
-        <v>525792.97854</v>
+        <v>525792.9785399999</v>
       </c>
       <c r="K80" s="22" t="n">
         <v>539778.1881</v>
@@ -4507,14 +4332,19 @@
         <v>68455.32339000001</v>
       </c>
       <c r="M80" s="22" t="n">
-        <v>172489.71227</v>
-      </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+        <v>172490.1979</v>
+      </c>
+      <c r="N80" s="22" t="n">
+        <v>283091.087</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>0.002</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>25</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>25</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>104177.56894</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>292739.35985</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>310802.172</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>0</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>9822.30847</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>9821.673000000001</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>1.13839</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,15 +4649,20 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
-        <v>5044049.32824</v>
+        <v>5044049.328240001</v>
       </c>
       <c r="D88" s="23" t="n">
         <v>4654996.73087</v>
@@ -4806,41 +4671,46 @@
         <v>5056135.978560001</v>
       </c>
       <c r="F88" s="33" t="n">
-        <v>6157210.962620001</v>
+        <v>6157210.962619999</v>
       </c>
       <c r="G88" s="23" t="n">
-        <v>6830520.05603</v>
+        <v>7283901.60908</v>
       </c>
       <c r="H88" s="33" t="n">
-        <v>7583122.98274</v>
+        <v>8355036.969709999</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>5496529.213230001</v>
+        <v>8052040.714589999</v>
       </c>
       <c r="J88" s="33" t="n">
-        <v>8254803.42372</v>
+        <v>9444337.596669998</v>
       </c>
       <c r="K88" s="23" t="n">
         <v>11266977.96582</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>12362336.25773</v>
+        <v>12362490.13779</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>13606993.20708</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>13608488.63099</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>14887489.53</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
-        <v>846336.6841600001</v>
+        <v>846336.6841599999</v>
       </c>
       <c r="D89" s="22" t="n">
-        <v>860084.2750000001</v>
+        <v>860084.275</v>
       </c>
       <c r="E89" s="22" t="n">
         <v>850301.2814</v>
@@ -4849,16 +4719,16 @@
         <v>1020181.64865</v>
       </c>
       <c r="G89" s="22" t="n">
-        <v>1020392.6829</v>
+        <v>1035188.51342</v>
       </c>
       <c r="H89" s="21" t="n">
-        <v>1179728.91691</v>
+        <v>1194524.74743</v>
       </c>
       <c r="I89" s="22" t="n">
-        <v>358549.36585</v>
+        <v>386238.1155</v>
       </c>
       <c r="J89" s="21" t="n">
-        <v>486557.55076</v>
+        <v>492502.72298</v>
       </c>
       <c r="K89" s="22" t="n">
         <v>433828.02241</v>
@@ -4869,12 +4739,17 @@
       <c r="M89" s="22" t="n">
         <v>462546.19401</v>
       </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+      <c r="N89" s="22" t="n">
+        <v>463090.649</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>321877.00638</v>
@@ -4889,16 +4764,16 @@
         <v>379855.66868</v>
       </c>
       <c r="G90" s="22" t="n">
-        <v>374492.67903</v>
+        <v>398512.00201</v>
       </c>
       <c r="H90" s="21" t="n">
-        <v>396832.25601</v>
+        <v>422236.7413</v>
       </c>
       <c r="I90" s="22" t="n">
-        <v>265782.10409</v>
+        <v>446958.5301499999</v>
       </c>
       <c r="J90" s="21" t="n">
-        <v>438654.39023</v>
+        <v>476485.23529</v>
       </c>
       <c r="K90" s="22" t="n">
         <v>558249.75304</v>
@@ -4909,12 +4784,17 @@
       <c r="M90" s="22" t="n">
         <v>756150.2524100001</v>
       </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+      <c r="N90" s="22" t="n">
+        <v>847711.9</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>2114351.19456</v>
@@ -4929,19 +4809,19 @@
         <v>2432448.20247</v>
       </c>
       <c r="G91" s="22" t="n">
-        <v>2556901.63437</v>
+        <v>2689110.48507</v>
       </c>
       <c r="H91" s="21" t="n">
-        <v>2726524.868559999</v>
+        <v>2860765.13418</v>
       </c>
       <c r="I91" s="22" t="n">
-        <v>2002436.5798</v>
+        <v>3034323.52067</v>
       </c>
       <c r="J91" s="21" t="n">
-        <v>2939702.034229999</v>
+        <v>3188511.91311</v>
       </c>
       <c r="K91" s="22" t="n">
-        <v>3366439.718210001</v>
+        <v>3366439.71821</v>
       </c>
       <c r="L91" s="22" t="n">
         <v>3996650.9659</v>
@@ -4949,12 +4829,17 @@
       <c r="M91" s="22" t="n">
         <v>4471202.597560001</v>
       </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+      <c r="N91" s="22" t="n">
+        <v>4609168.242</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>10234839.73135</v>
@@ -4969,32 +4854,37 @@
         <v>11389527.73865</v>
       </c>
       <c r="G92" s="22" t="n">
-        <v>11831683.06319</v>
+        <v>12496680.7822</v>
       </c>
       <c r="H92" s="21" t="n">
-        <v>13259575.25369</v>
+        <v>14138515.17251</v>
       </c>
       <c r="I92" s="22" t="n">
-        <v>9884265.50213</v>
+        <v>15456923.67353</v>
       </c>
       <c r="J92" s="21" t="n">
-        <v>15476490.57573</v>
+        <v>16984014.00838</v>
       </c>
       <c r="K92" s="22" t="n">
         <v>19136017.70792</v>
       </c>
       <c r="L92" s="22" t="n">
-        <v>21406727.54127</v>
+        <v>21406832.7919</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>25676974.90928</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>25678163.71213</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>29319821.33</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>148063.70689</v>
@@ -5009,35 +4899,40 @@
         <v>240001.60099</v>
       </c>
       <c r="G93" s="22" t="n">
-        <v>176728.58364</v>
+        <v>190455.09688</v>
       </c>
       <c r="H93" s="21" t="n">
-        <v>209846.76508</v>
+        <v>227827.3221</v>
       </c>
       <c r="I93" s="22" t="n">
-        <v>230189.84137</v>
+        <v>274995.02402</v>
       </c>
       <c r="J93" s="21" t="n">
-        <v>338849.01235</v>
+        <v>349278.02067</v>
       </c>
       <c r="K93" s="22" t="n">
         <v>426722.79402</v>
       </c>
       <c r="L93" s="22" t="n">
-        <v>536271.4519099999</v>
+        <v>536320.0813400001</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>379289.99713</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>379545.68442</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>417959.132</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
-        <v>852484.2385399999</v>
+        <v>852484.2385399998</v>
       </c>
       <c r="D94" s="22" t="n">
         <v>902890.2329500001</v>
@@ -5049,16 +4944,16 @@
         <v>1038027.78969</v>
       </c>
       <c r="G94" s="22" t="n">
-        <v>1097109.44557</v>
+        <v>1114446.83575</v>
       </c>
       <c r="H94" s="21" t="n">
-        <v>1218688.39342</v>
+        <v>1240739.70016</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>1136039.52653</v>
+        <v>1535237.88192</v>
       </c>
       <c r="J94" s="21" t="n">
-        <v>1791483.02223</v>
+        <v>1837544.51737</v>
       </c>
       <c r="K94" s="22" t="n">
         <v>2088466.51868</v>
@@ -5067,14 +4962,19 @@
         <v>2483650.61288</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>2901265.275179999</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>2901560.06201</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>3247817.266</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>764775.17765</v>
@@ -5098,7 +4998,7 @@
         <v>974452.86599</v>
       </c>
       <c r="J95" s="21" t="n">
-        <v>16044.4481</v>
+        <v>955076.7174300001</v>
       </c>
       <c r="K95" s="22" t="n">
         <v>1766475.90213</v>
@@ -5109,12 +5009,17 @@
       <c r="M95" s="22" t="n">
         <v>2485168.42757</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>2801915.09</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>10774134.75349</v>
@@ -5129,16 +5034,16 @@
         <v>12737349.99631</v>
       </c>
       <c r="G96" s="22" t="n">
-        <v>13101175.50412</v>
+        <v>13582847.88572</v>
       </c>
       <c r="H96" s="21" t="n">
-        <v>14128064.12571</v>
+        <v>14747227.7235</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>11090786.45721</v>
+        <v>16186767.01515</v>
       </c>
       <c r="J96" s="21" t="n">
-        <v>15350590.86753</v>
+        <v>17743956.50628</v>
       </c>
       <c r="K96" s="22" t="n">
         <v>19994445.06337</v>
@@ -5147,14 +5052,19 @@
         <v>22871784.48973</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>26721454.20609</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>26721698.05915001</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>30787844.406</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>427970.34563</v>
@@ -5169,16 +5079,16 @@
         <v>1042830.88684</v>
       </c>
       <c r="G97" s="22" t="n">
-        <v>1233563.68131</v>
+        <v>1262061.34868</v>
       </c>
       <c r="H97" s="21" t="n">
-        <v>1288744.35945</v>
+        <v>1582009.43128</v>
       </c>
       <c r="I97" s="22" t="n">
-        <v>1158917.57099</v>
+        <v>1452485.81801</v>
       </c>
       <c r="J97" s="21" t="n">
-        <v>1544777.79981</v>
+        <v>2263206.18227</v>
       </c>
       <c r="K97" s="22" t="n">
         <v>2530819.2434</v>
@@ -5189,12 +5099,17 @@
       <c r="M97" s="22" t="n">
         <v>2802370.91696</v>
       </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+      <c r="N97" s="22" t="n">
+        <v>3463530.41</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>107485.99657</v>
@@ -5209,16 +5124,16 @@
         <v>555470.52093</v>
       </c>
       <c r="G98" s="22" t="n">
-        <v>844304.681</v>
+        <v>883775.3216499999</v>
       </c>
       <c r="H98" s="21" t="n">
-        <v>462372.07196</v>
+        <v>466772.22088</v>
       </c>
       <c r="I98" s="22" t="n">
-        <v>576682.31369</v>
+        <v>677192.2999499999</v>
       </c>
       <c r="J98" s="21" t="n">
-        <v>572835.4578099999</v>
+        <v>641674.78545</v>
       </c>
       <c r="K98" s="22" t="n">
         <v>954403.36938</v>
@@ -5229,18 +5144,23 @@
       <c r="M98" s="22" t="n">
         <v>393478.84307</v>
       </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+      <c r="N98" s="22" t="n">
+        <v>504319.917</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
-        <v>608462.91402</v>
+        <v>608462.9140199999</v>
       </c>
       <c r="D99" s="23" t="n">
-        <v>750375.7037900001</v>
+        <v>750375.7037899999</v>
       </c>
       <c r="E99" s="23" t="n">
         <v>661658.90437</v>
@@ -5249,32 +5169,37 @@
         <v>678497.92895</v>
       </c>
       <c r="G99" s="23" t="n">
-        <v>653978.89143</v>
+        <v>673372.0150199999</v>
       </c>
       <c r="H99" s="33" t="n">
-        <v>1548358.90112</v>
+        <v>1641258.46407</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>1657583.80115</v>
+        <v>2391396.36572</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>2836145.18684</v>
+        <v>2838633.09734</v>
       </c>
       <c r="K99" s="23" t="n">
         <v>2758281.72219</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>2908577.52347</v>
+        <v>2908715.51257</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>3088107.52114</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>3088249.7452</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>3446054.802</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>264435.16581</v>
@@ -5289,32 +5214,37 @@
         <v>165690.55037</v>
       </c>
       <c r="G100" s="22" t="n">
-        <v>169555.10219</v>
+        <v>196288.67615</v>
       </c>
       <c r="H100" s="21" t="n">
-        <v>187456.26894</v>
+        <v>295352.0175</v>
       </c>
       <c r="I100" s="22" t="n">
-        <v>290219.27814</v>
+        <v>427360.57322</v>
       </c>
       <c r="J100" s="21" t="n">
-        <v>418135.36433</v>
+        <v>431029.05037</v>
       </c>
       <c r="K100" s="22" t="n">
         <v>325264.70608</v>
       </c>
       <c r="L100" s="22" t="n">
-        <v>493371.3858400001</v>
+        <v>493443.3918400001</v>
       </c>
       <c r="M100" s="22" t="n">
-        <v>549731.3632</v>
-      </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+        <v>549793.8692899999</v>
+      </c>
+      <c r="N100" s="22" t="n">
+        <v>790521.21</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>4480.88174</v>
@@ -5329,13 +5259,13 @@
         <v>4480.88174</v>
       </c>
       <c r="G101" s="22" t="n">
-        <v>0</v>
+        <v>4480.88174</v>
       </c>
       <c r="H101" s="21" t="n">
-        <v>236981.86368</v>
+        <v>241462.74542</v>
       </c>
       <c r="I101" s="22" t="n">
-        <v>282462.06549</v>
+        <v>286942.94723</v>
       </c>
       <c r="J101" s="21" t="n">
         <v>335690.20698</v>
@@ -5349,12 +5279,17 @@
       <c r="M101" s="22" t="n">
         <v>335187.7559700001</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>335187.756</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>26656.34387</v>
@@ -5369,13 +5304,13 @@
         <v>26693.88265</v>
       </c>
       <c r="G102" s="22" t="n">
-        <v>12662.06692</v>
+        <v>26693.88265</v>
       </c>
       <c r="H102" s="21" t="n">
-        <v>12590.50067</v>
+        <v>26622.3164</v>
       </c>
       <c r="I102" s="22" t="n">
-        <v>12593.88691</v>
+        <v>26625.70264</v>
       </c>
       <c r="J102" s="21" t="n">
         <v>26625.70264</v>
@@ -5384,17 +5319,22 @@
         <v>26628.23777</v>
       </c>
       <c r="L102" s="22" t="n">
-        <v>26636.49321</v>
+        <v>26639.03899</v>
       </c>
       <c r="M102" s="22" t="n">
         <v>26635.69435</v>
       </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+      <c r="N102" s="22" t="n">
+        <v>26643.367</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>863477.36328</v>
@@ -5415,26 +5355,31 @@
         <v>3094800.34918</v>
       </c>
       <c r="I103" s="22" t="n">
-        <v>3104040.77414</v>
+        <v>4380513.825789999</v>
       </c>
       <c r="J103" s="21" t="n">
-        <v>5613517.3948</v>
+        <v>5613517.394799999</v>
       </c>
       <c r="K103" s="22" t="n">
-        <v>6639758.34667</v>
+        <v>6639758.346669999</v>
       </c>
       <c r="L103" s="22" t="n">
-        <v>8054874.069359999</v>
+        <v>8054874.06936</v>
       </c>
       <c r="M103" s="22" t="n">
         <v>9651723.96401</v>
       </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+      <c r="N103" s="22" t="n">
+        <v>11441118.703</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>30629.02503</v>
@@ -5449,32 +5394,37 @@
         <v>34372.2265</v>
       </c>
       <c r="G104" s="22" t="n">
-        <v>33623.14545</v>
+        <v>34238.38195</v>
       </c>
       <c r="H104" s="21" t="n">
-        <v>39545.35229</v>
+        <v>40160.58879</v>
       </c>
       <c r="I104" s="22" t="n">
-        <v>43978.39613999999</v>
+        <v>51030.97832</v>
       </c>
       <c r="J104" s="21" t="n">
-        <v>52033.29528</v>
+        <v>52522.35747</v>
       </c>
       <c r="K104" s="22" t="n">
         <v>59680.03629</v>
       </c>
       <c r="L104" s="22" t="n">
-        <v>63856.50525</v>
+        <v>63919.94257</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>84290.37881000001</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>84358.80525</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>89601.22900000001</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>135943.35573</v>
@@ -5489,16 +5439,16 @@
         <v>178295.24039</v>
       </c>
       <c r="G105" s="22" t="n">
-        <v>156750.58407</v>
+        <v>181101.9482</v>
       </c>
       <c r="H105" s="21" t="n">
-        <v>172769.832</v>
+        <v>198853.14741</v>
       </c>
       <c r="I105" s="22" t="n">
-        <v>189941.23527</v>
+        <v>223066.75735</v>
       </c>
       <c r="J105" s="21" t="n">
-        <v>240250.55651</v>
+        <v>251652.97759</v>
       </c>
       <c r="K105" s="22" t="n">
         <v>287682.14854</v>
@@ -5507,20 +5457,25 @@
         <v>359216.92943</v>
       </c>
       <c r="M105" s="22" t="n">
-        <v>447827.26685</v>
-      </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+        <v>447872.50232</v>
+      </c>
+      <c r="N105" s="22" t="n">
+        <v>562795.742</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
-        <v>717159.2214399998</v>
+        <v>717159.22144</v>
       </c>
       <c r="D106" s="22" t="n">
-        <v>979911.01393</v>
+        <v>979911.0139299999</v>
       </c>
       <c r="E106" s="22" t="n">
         <v>1331436.95112</v>
@@ -5529,32 +5484,37 @@
         <v>1666380.57998</v>
       </c>
       <c r="G106" s="22" t="n">
-        <v>1944612.5351</v>
+        <v>1995432.28357</v>
       </c>
       <c r="H106" s="21" t="n">
-        <v>2195785.26564</v>
+        <v>2255992.70063</v>
       </c>
       <c r="I106" s="22" t="n">
-        <v>2265651.83494</v>
+        <v>3004144.41883</v>
       </c>
       <c r="J106" s="21" t="n">
-        <v>3850107.3337</v>
+        <v>3872404.59251</v>
       </c>
       <c r="K106" s="22" t="n">
         <v>5056675.88458</v>
       </c>
       <c r="L106" s="22" t="n">
-        <v>6424565.615590001</v>
+        <v>6424565.61559</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>8007288.902050001</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>8007322.84599</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>9799842.848999999</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>0</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>29.644</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>0</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>1950</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>0</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>0</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>0</v>
@@ -5829,12 +5819,17 @@
       <c r="M113" s="22" t="n">
         <v>1950</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>1131.67121</v>
@@ -5849,7 +5844,7 @@
         <v>5648.96099</v>
       </c>
       <c r="G114" s="23" t="n">
-        <v>5522.863800000001</v>
+        <v>5522.8638</v>
       </c>
       <c r="H114" s="33" t="n">
         <v>5312.308559999999</v>
@@ -5858,23 +5853,28 @@
         <v>12608.69184</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>26087.16782</v>
+        <v>26142.16782</v>
       </c>
       <c r="K114" s="23" t="n">
         <v>26012.63503</v>
       </c>
       <c r="L114" s="23" t="n">
-        <v>45357.62253</v>
+        <v>45378.57301</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>81614.78193</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>81682.89274000001</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>123758.657</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>1131.67121</v>
@@ -5889,7 +5889,7 @@
         <v>3018.86826</v>
       </c>
       <c r="G115" s="22" t="n">
-        <v>5522.863800000001</v>
+        <v>5522.8638</v>
       </c>
       <c r="H115" s="21" t="n">
         <v>5312.308559999999</v>
@@ -5898,23 +5898,28 @@
         <v>12608.69184</v>
       </c>
       <c r="J115" s="21" t="n">
-        <v>8583.132820000001</v>
+        <v>8638.132820000001</v>
       </c>
       <c r="K115" s="22" t="n">
         <v>26012.63503</v>
       </c>
       <c r="L115" s="22" t="n">
-        <v>44944.22079</v>
+        <v>44965.17127</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>81614.78193</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>81682.89274000001</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>123670.251</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>0</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>88.40600000000001</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>126.31638</v>
@@ -5989,12 +5999,17 @@
       <c r="M117" s="23" t="n">
         <v>115392.3765</v>
       </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+      <c r="N117" s="23" t="n">
+        <v>37805.881</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>0</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>77186.549</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>126.31638</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>0</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>0</v>
@@ -6229,12 +6269,17 @@
       <c r="M123" s="22" t="n">
         <v>31244.72883</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>30844.782</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6344,17 +6399,22 @@
         <v>2461.09592</v>
       </c>
       <c r="L126" s="22" t="n">
-        <v>6348.82794</v>
+        <v>6348.827939999999</v>
       </c>
       <c r="M126" s="22" t="n">
         <v>6961.09867</v>
       </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="N126" s="22" t="n">
+        <v>6961.099</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
         <v>14865942.07637</v>
@@ -6369,29 +6429,32 @@
         <v>20656579.02692</v>
       </c>
       <c r="G127" s="23" t="n">
-        <v>22261904.01579</v>
+        <v>23938954.77941</v>
       </c>
       <c r="H127" s="33" t="n">
-        <v>25233347.0112</v>
+        <v>28110485.70038</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>24832658.20265</v>
+        <v>34485837.23458999</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>37118904.40947001</v>
+        <v>39349795.27065</v>
       </c>
       <c r="K127" s="23" t="n">
-        <v>50949219.39518999</v>
+        <v>50949219.39519</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>58952866.76685999</v>
+        <v>58953962.38575999</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>62427443.7762</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>62434013.44489</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>87054109.59900001</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>291-Manufacture of motor vehicles</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,52 +6553,62 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
         <v>5955199.010139999</v>
       </c>
       <c r="D132" s="23" t="n">
-        <v>6688937.04273</v>
+        <v>6688937.042730001</v>
       </c>
       <c r="E132" s="23" t="n">
         <v>8606373.28723</v>
       </c>
       <c r="F132" s="33" t="n">
-        <v>8685684.599289998</v>
+        <v>8685684.59929</v>
       </c>
       <c r="G132" s="23" t="n">
-        <v>9587366.52978</v>
+        <v>10315187.16271</v>
       </c>
       <c r="H132" s="33" t="n">
-        <v>10938078.2102</v>
+        <v>12493447.99763</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>10497448.14402</v>
+        <v>16113868.90797</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>18445788.52482</v>
+        <v>19824951.52621</v>
       </c>
       <c r="K132" s="23" t="n">
         <v>26536331.56735</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>32738189.12774</v>
+        <v>32738601.18343</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>34429354.07693</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>34437807.70543999</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>47207805.57</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>1459987.65578</v>
@@ -6541,32 +6623,37 @@
         <v>1691444.72366</v>
       </c>
       <c r="G133" s="23" t="n">
-        <v>2425281.1808</v>
+        <v>2749169.72003</v>
       </c>
       <c r="H133" s="33" t="n">
-        <v>2157552.24262</v>
+        <v>2936527.42321</v>
       </c>
       <c r="I133" s="23" t="n">
-        <v>1358162.90717</v>
+        <v>3569350.20599</v>
       </c>
       <c r="J133" s="33" t="n">
-        <v>4290694.91915</v>
+        <v>5066957.041289999</v>
       </c>
       <c r="K133" s="23" t="n">
         <v>6905598.18401</v>
       </c>
       <c r="L133" s="23" t="n">
-        <v>11261904.45637</v>
+        <v>11262069.01516</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>9396788.380500002</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>9396792.68193</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>10552503.166</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>1004333.46012</v>
@@ -6581,32 +6668,37 @@
         <v>806220.91825</v>
       </c>
       <c r="G134" s="22" t="n">
-        <v>1450169.11339</v>
+        <v>1454737.8751</v>
       </c>
       <c r="H134" s="21" t="n">
-        <v>1343479.94718</v>
+        <v>1355390.78049</v>
       </c>
       <c r="I134" s="22" t="n">
-        <v>748925.37864</v>
+        <v>1455248.58469</v>
       </c>
       <c r="J134" s="21" t="n">
-        <v>1855873.23483</v>
+        <v>2632067.46504</v>
       </c>
       <c r="K134" s="22" t="n">
         <v>3547147.61723</v>
       </c>
       <c r="L134" s="22" t="n">
-        <v>6649013.42657</v>
+        <v>6649177.985359999</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>6354266.72451</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>6354266.724509999</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>6511431.135</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>1016.61865</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>32982.81722</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>19289.696</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>657.10433</v>
@@ -6681,12 +6778,17 @@
       <c r="M136" s="22" t="n">
         <v>2484.48805</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>1773.172</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>318831.11061</v>
@@ -6704,10 +6806,10 @@
         <v>962972.4299399999</v>
       </c>
       <c r="H137" s="21" t="n">
-        <v>813300.02121</v>
+        <v>869714.02121</v>
       </c>
       <c r="I137" s="22" t="n">
-        <v>495025.18261</v>
+        <v>1031216.64032</v>
       </c>
       <c r="J137" s="21" t="n">
         <v>1024144.0692</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>2272098.96514</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>3405465.37</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>88000</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>136463.57073</v>
@@ -6901,16 +7028,16 @@
         <v>316823.8671</v>
       </c>
       <c r="G142" s="22" t="n">
-        <v>10248.05215</v>
+        <v>329567.8296699999</v>
       </c>
       <c r="H142" s="21" t="n">
-        <v>139.71084</v>
+        <v>710790.0581200001</v>
       </c>
       <c r="I142" s="22" t="n">
-        <v>14157.13646</v>
+        <v>982829.77152</v>
       </c>
       <c r="J142" s="21" t="n">
-        <v>1310223.59878</v>
+        <v>1310291.49071</v>
       </c>
       <c r="K142" s="22" t="n">
         <v>1571902.74419</v>
@@ -6919,14 +7046,19 @@
         <v>1614052.12727</v>
       </c>
       <c r="M142" s="22" t="n">
-        <v>651924.36168</v>
-      </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+        <v>651928.66311</v>
+      </c>
+      <c r="N142" s="22" t="n">
+        <v>618090.137</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
         <v>3117329.08915</v>
@@ -6938,35 +7070,40 @@
         <v>4821201.477339999</v>
       </c>
       <c r="F143" s="45" t="n">
-        <v>4750989.678960001</v>
+        <v>4750989.67896</v>
       </c>
       <c r="G143" s="46" t="n">
-        <v>4684731.135650001</v>
+        <v>5064931.120259999</v>
       </c>
       <c r="H143" s="45" t="n">
-        <v>6245030.86434</v>
+        <v>6964240.3018</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>6360487.22196</v>
+        <v>9356893.993079999</v>
       </c>
       <c r="J143" s="45" t="n">
-        <v>10679640.69855</v>
+        <v>11109379.98346</v>
       </c>
       <c r="K143" s="46" t="n">
         <v>14903590.8405</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>17572081.20022999</v>
+        <v>17572202.0083</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>20463631.73954</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>20469972.45486</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>30022506.581</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>3001290.33234</v>
@@ -6981,32 +7118,37 @@
         <v>4491517.66332</v>
       </c>
       <c r="G144" s="25" t="n">
-        <v>4490679.58613</v>
+        <v>4798460.431459999</v>
       </c>
       <c r="H144" s="24" t="n">
-        <v>5918727.95374</v>
+        <v>6562603.68545</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>6314488.20456</v>
+        <v>8866488.479010001</v>
       </c>
       <c r="J144" s="24" t="n">
-        <v>10134829.10358</v>
+        <v>10564561.90849</v>
       </c>
       <c r="K144" s="25" t="n">
         <v>14305174.04676</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>17147447.67442</v>
+        <v>17147553.94202</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>19904365.7573</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>19910675.36529</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>29011956.244</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
         <v>10168.19893</v>
@@ -7041,12 +7183,17 @@
       <c r="M145" s="25" t="n">
         <v>52305.07121</v>
       </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+      <c r="N145" s="25" t="n">
+        <v>96299.85799999999</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>365.62048</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>17.9453</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>17.604</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>128.13152</v>
@@ -7121,12 +7273,17 @@
       <c r="M147" s="25" t="n">
         <v>18551.76153</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>9787.075999999999</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>106108.04684</v>
@@ -7141,32 +7298,37 @@
         <v>209486.10364</v>
       </c>
       <c r="G148" s="25" t="n">
-        <v>147160.79113</v>
+        <v>219579.93041</v>
       </c>
       <c r="H148" s="24" t="n">
-        <v>305680.50409</v>
+        <v>381014.20984</v>
       </c>
       <c r="I148" s="25" t="n">
-        <v>16941.56373</v>
+        <v>461348.0604</v>
       </c>
       <c r="J148" s="24" t="n">
-        <v>514062.69389</v>
+        <v>514069.17389</v>
       </c>
       <c r="K148" s="25" t="n">
         <v>558238.1947</v>
       </c>
       <c r="L148" s="25" t="n">
-        <v>369923.97113</v>
+        <v>369938.5116</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>488427.0948</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>488458.20213</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>904481.007</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>124941.75777</v>
@@ -7175,38 +7337,43 @@
         <v>140890.98237</v>
       </c>
       <c r="E149" s="23" t="n">
-        <v>215580.71645</v>
+        <v>215580.7164499999</v>
       </c>
       <c r="F149" s="33" t="n">
         <v>494544.02297</v>
       </c>
       <c r="G149" s="23" t="n">
-        <v>569768.9031399998</v>
+        <v>573266.56833</v>
       </c>
       <c r="H149" s="33" t="n">
-        <v>510226.20717</v>
+        <v>515183.44643</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>511995.3269</v>
+        <v>597173.3086799999</v>
       </c>
       <c r="J149" s="33" t="n">
-        <v>684157.4037199999</v>
+        <v>686685.85231</v>
       </c>
       <c r="K149" s="23" t="n">
-        <v>698996.4762800001</v>
+        <v>698996.4762799999</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>355888.4613199999</v>
+        <v>355924.74792</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>1138358.28625</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>1139177.25193</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>1376245.363</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>65867.23233</v>
@@ -7221,32 +7388,37 @@
         <v>127515.98627</v>
       </c>
       <c r="G150" s="22" t="n">
-        <v>46315.82658</v>
+        <v>46315.82658000001</v>
       </c>
       <c r="H150" s="21" t="n">
         <v>43673.71616</v>
       </c>
       <c r="I150" s="22" t="n">
-        <v>33867.69295</v>
+        <v>42241.7457</v>
       </c>
       <c r="J150" s="21" t="n">
         <v>52067.96014</v>
       </c>
       <c r="K150" s="22" t="n">
-        <v>39878.79411000001</v>
+        <v>39878.79411</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>44654.68121</v>
+        <v>44690.96780999999</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>746781.2399599999</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>746823.61052</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>727911.106</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>4.303</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>2.634</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>0</v>
@@ -7321,12 +7498,17 @@
       <c r="M152" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>45008.65816</v>
@@ -7341,16 +7523,16 @@
         <v>95570.02558</v>
       </c>
       <c r="G153" s="22" t="n">
-        <v>128601.1994</v>
+        <v>131987.62621</v>
       </c>
       <c r="H153" s="21" t="n">
-        <v>100696.43011</v>
+        <v>105565.30067</v>
       </c>
       <c r="I153" s="22" t="n">
-        <v>65232.73519</v>
+        <v>109867.55363</v>
       </c>
       <c r="J153" s="21" t="n">
-        <v>119774.79967</v>
+        <v>122303.24826</v>
       </c>
       <c r="K153" s="22" t="n">
         <v>137811.60276</v>
@@ -7359,14 +7541,19 @@
         <v>177987.80289</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>197883.84383</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>198185.72901</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>243606.307</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>14061.56428</v>
@@ -7375,22 +7562,22 @@
         <v>23959.67125</v>
       </c>
       <c r="E154" s="22" t="n">
-        <v>99198.96424000002</v>
+        <v>99198.96424</v>
       </c>
       <c r="F154" s="21" t="n">
         <v>271453.70812</v>
       </c>
       <c r="G154" s="22" t="n">
-        <v>394847.57416</v>
+        <v>394958.81254</v>
       </c>
       <c r="H154" s="21" t="n">
-        <v>362326.75595</v>
+        <v>362415.12465</v>
       </c>
       <c r="I154" s="22" t="n">
-        <v>408295.089</v>
+        <v>440464.19959</v>
       </c>
       <c r="J154" s="21" t="n">
-        <v>508879.28549</v>
+        <v>508879.2854899999</v>
       </c>
       <c r="K154" s="22" t="n">
         <v>517847.07904</v>
@@ -7399,14 +7586,19 @@
         <v>133245.97722</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>193693.20246</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>194167.9124</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>404725.316</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,33 +7633,38 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
-        <v>368566.02202</v>
+        <v>368566.0220199999</v>
       </c>
       <c r="D156" s="23" t="n">
         <v>519427.26679</v>
       </c>
       <c r="E156" s="23" t="n">
-        <v>623436.36213</v>
+        <v>623436.3621300001</v>
       </c>
       <c r="F156" s="33" t="n">
         <v>489221.14612</v>
       </c>
       <c r="G156" s="23" t="n">
-        <v>497405.17913</v>
+        <v>498730.88914</v>
       </c>
       <c r="H156" s="33" t="n">
-        <v>557757.54836</v>
+        <v>559800.19273</v>
       </c>
       <c r="I156" s="23" t="n">
-        <v>712646.59815</v>
+        <v>718892.89512</v>
       </c>
       <c r="J156" s="33" t="n">
         <v>956598.22502</v>
@@ -7479,35 +7676,40 @@
         <v>913076.3133200001</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>678998.2101499999</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>679945.80505</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>933604.674</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
-        <v>368464.52413</v>
+        <v>368464.5241299999</v>
       </c>
       <c r="D157" s="22" t="n">
         <v>516654.54919</v>
       </c>
       <c r="E157" s="22" t="n">
-        <v>623392.4461299999</v>
+        <v>623392.4461300002</v>
       </c>
       <c r="F157" s="21" t="n">
         <v>489221.14612</v>
       </c>
       <c r="G157" s="22" t="n">
-        <v>497405.17913</v>
+        <v>498730.88914</v>
       </c>
       <c r="H157" s="21" t="n">
-        <v>557757.54836</v>
+        <v>559800.19273</v>
       </c>
       <c r="I157" s="22" t="n">
-        <v>712643.24815</v>
+        <v>718889.54512</v>
       </c>
       <c r="J157" s="21" t="n">
         <v>956598.22502</v>
@@ -7516,17 +7718,22 @@
         <v>1132633.384</v>
       </c>
       <c r="L157" s="22" t="n">
-        <v>913076.3133200001</v>
+        <v>913076.31332</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>678998.2101499999</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>679945.80505</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>933304.674</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>101.49789</v>
@@ -7561,12 +7768,17 @@
       <c r="M158" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+      <c r="N158" s="22" t="n">
+        <v>300</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>0</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>0</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,12 +7903,17 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>153058.1667</v>
@@ -7701,32 +7928,37 @@
         <v>197049.12341</v>
       </c>
       <c r="G162" s="23" t="n">
-        <v>225942.00644</v>
+        <v>243379.89474</v>
       </c>
       <c r="H162" s="33" t="n">
-        <v>273753.66159</v>
+        <v>306845.39543</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>215039.38083</v>
+        <v>301668.8980399999</v>
       </c>
       <c r="J162" s="33" t="n">
-        <v>306126.39636</v>
+        <v>343288.01222</v>
       </c>
       <c r="K162" s="23" t="n">
         <v>406802.75385</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>447188.00851</v>
+        <v>447278.41074</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>541835.0763899999</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>542093.70776</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>647911.2879999999</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
         <v>109209.53257</v>
@@ -7741,35 +7973,40 @@
         <v>113704.87104</v>
       </c>
       <c r="G163" s="22" t="n">
-        <v>122143.01222</v>
+        <v>136152.27398</v>
       </c>
       <c r="H163" s="21" t="n">
-        <v>196269.8739</v>
+        <v>224601.7723</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>142510.36714</v>
+        <v>202830.64319</v>
       </c>
       <c r="J163" s="21" t="n">
-        <v>183824.71278</v>
+        <v>213218.59914</v>
       </c>
       <c r="K163" s="22" t="n">
         <v>253297.95246</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>282215.96824</v>
+        <v>282258.31366</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>353703.47652</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>353838.73681</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>415678.301</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
-        <v>38059.75554999999</v>
+        <v>38059.75555</v>
       </c>
       <c r="D164" s="22" t="n">
         <v>44924.22411</v>
@@ -7781,44 +8018,49 @@
         <v>69681.60506</v>
       </c>
       <c r="G164" s="22" t="n">
-        <v>90047.36079999999</v>
+        <v>93470.29654</v>
       </c>
       <c r="H164" s="21" t="n">
-        <v>71787.50251000001</v>
+        <v>76536.96554</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>58347.75677</v>
+        <v>82288.54057000001</v>
       </c>
       <c r="J164" s="21" t="n">
-        <v>113784.65246</v>
+        <v>121552.38196</v>
       </c>
       <c r="K164" s="22" t="n">
         <v>142551.35962</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>144065.88536</v>
+        <v>144113.94217</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>152973.5879</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>153078.56038</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>206594.051</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>4284.871359999999</v>
       </c>
       <c r="D165" s="22" t="n">
-        <v>6465.5249</v>
+        <v>6465.524899999999</v>
       </c>
       <c r="E165" s="22" t="n">
         <v>4973.42141</v>
       </c>
       <c r="F165" s="21" t="n">
-        <v>9473.57228</v>
+        <v>9473.572279999998</v>
       </c>
       <c r="G165" s="22" t="n">
         <v>8840.562</v>
@@ -7830,7 +8072,7 @@
         <v>12173.09972</v>
       </c>
       <c r="J165" s="21" t="n">
-        <v>3422.29444</v>
+        <v>3422.294440000001</v>
       </c>
       <c r="K165" s="22" t="n">
         <v>6271.12474</v>
@@ -7839,14 +8081,19 @@
         <v>14070.12087</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>25150.41526</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>25168.81386</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>14772.979</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>1504.00722</v>
@@ -7861,13 +8108,13 @@
         <v>4189.07503</v>
       </c>
       <c r="G166" s="22" t="n">
-        <v>4911.07142</v>
+        <v>4916.76222</v>
       </c>
       <c r="H166" s="21" t="n">
-        <v>5016.76887</v>
+        <v>5027.141279999999</v>
       </c>
       <c r="I166" s="22" t="n">
-        <v>2008.1572</v>
+        <v>4376.614560000001</v>
       </c>
       <c r="J166" s="21" t="n">
         <v>5094.736680000001</v>
@@ -7881,12 +8128,17 @@
       <c r="M166" s="22" t="n">
         <v>10007.59671</v>
       </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+      <c r="N166" s="22" t="n">
+        <v>10865.957</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
         <v>542074.0801499999</v>
@@ -7898,19 +8150,19 @@
         <v>820654.2156100001</v>
       </c>
       <c r="F167" s="33" t="n">
-        <v>912612.64194</v>
+        <v>912612.6419399999</v>
       </c>
       <c r="G167" s="23" t="n">
-        <v>1064390.80651</v>
+        <v>1065861.6521</v>
       </c>
       <c r="H167" s="33" t="n">
-        <v>1002283.64712</v>
+        <v>1019356.86025</v>
       </c>
       <c r="I167" s="23" t="n">
-        <v>1141625.67264</v>
+        <v>1372398.57069</v>
       </c>
       <c r="J167" s="33" t="n">
-        <v>1422404.70555</v>
+        <v>1426769.15278</v>
       </c>
       <c r="K167" s="23" t="n">
         <v>2045465.02844</v>
@@ -7919,14 +8171,19 @@
         <v>1404540.91901</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>1274112.6441</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>1274112.94812</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>2490151.998</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>119790.73077</v>
@@ -7935,7 +8192,7 @@
         <v>282575.69214</v>
       </c>
       <c r="E168" s="22" t="n">
-        <v>366214.5651300001</v>
+        <v>366214.56513</v>
       </c>
       <c r="F168" s="21" t="n">
         <v>229335.97967</v>
@@ -7947,10 +8204,10 @@
         <v>127312.79986</v>
       </c>
       <c r="I168" s="22" t="n">
-        <v>116308.70704</v>
+        <v>122953.09837</v>
       </c>
       <c r="J168" s="21" t="n">
-        <v>123719.41486</v>
+        <v>126050.16927</v>
       </c>
       <c r="K168" s="22" t="n">
         <v>79241.30398</v>
@@ -7959,14 +8216,19 @@
         <v>66678.63296</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>80878.64638999998</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>80876.14078999999</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>193850.67</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>36518.35199999999</v>
@@ -7990,23 +8252,28 @@
         <v>108445.73381</v>
       </c>
       <c r="J169" s="21" t="n">
-        <v>69946.44236</v>
+        <v>72277.19677</v>
       </c>
       <c r="K169" s="22" t="n">
         <v>31158.51813</v>
       </c>
       <c r="L169" s="22" t="n">
-        <v>37745.33143999999</v>
+        <v>37745.33144</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>38739.74615000001</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>38736.93653000001</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>111927.261</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>0</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>351594.67775</v>
@@ -8061,16 +8333,16 @@
         <v>637208.5152500001</v>
       </c>
       <c r="G171" s="22" t="n">
-        <v>814726.21399</v>
+        <v>814960.9584700001</v>
       </c>
       <c r="H171" s="21" t="n">
-        <v>842580.48453</v>
+        <v>858302.7209</v>
       </c>
       <c r="I171" s="22" t="n">
-        <v>942160.06984</v>
+        <v>1164945.43439</v>
       </c>
       <c r="J171" s="21" t="n">
-        <v>1181649.59749</v>
+        <v>1181659.21287</v>
       </c>
       <c r="K171" s="22" t="n">
         <v>1598594.20897</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>920733.84473</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>1854283.639</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>107207.02363</v>
@@ -8101,16 +8378,16 @@
         <v>154053.30949</v>
       </c>
       <c r="G172" s="22" t="n">
-        <v>193626.36708</v>
+        <v>194862.46819</v>
       </c>
       <c r="H172" s="21" t="n">
-        <v>145263.76349</v>
+        <v>146614.74025</v>
       </c>
       <c r="I172" s="22" t="n">
-        <v>191602.62957</v>
+        <v>192945.77174</v>
       </c>
       <c r="J172" s="21" t="n">
-        <v>186982.13556</v>
+        <v>191336.96741</v>
       </c>
       <c r="K172" s="22" t="n">
         <v>398788.03362</v>
@@ -8121,12 +8398,17 @@
       <c r="M172" s="22" t="n">
         <v>311239.89913</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>553944.95</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>169052.34796</v>
@@ -8144,13 +8426,13 @@
         <v>100232.79705</v>
       </c>
       <c r="H173" s="33" t="n">
-        <v>131665.16526</v>
+        <v>131685.50404</v>
       </c>
       <c r="I173" s="23" t="n">
         <v>149945.53356</v>
       </c>
       <c r="J173" s="33" t="n">
-        <v>89210.52899000001</v>
+        <v>174064.21011</v>
       </c>
       <c r="K173" s="23" t="n">
         <v>259509.29567</v>
@@ -8161,12 +8443,17 @@
       <c r="M173" s="23" t="n">
         <v>685202.55577</v>
       </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+      <c r="N173" s="23" t="n">
+        <v>915101.102</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>7837.128809999999</v>
@@ -8201,12 +8488,17 @@
       <c r="M174" s="22" t="n">
         <v>109073.28047</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>144268.785</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>161215.21915</v>
@@ -8224,13 +8516,13 @@
         <v>94708.50957000001</v>
       </c>
       <c r="H175" s="21" t="n">
-        <v>124173.01343</v>
+        <v>124193.35221</v>
       </c>
       <c r="I175" s="22" t="n">
         <v>131376.53468</v>
       </c>
       <c r="J175" s="21" t="n">
-        <v>65988.98648000001</v>
+        <v>150842.6676</v>
       </c>
       <c r="K175" s="22" t="n">
         <v>202476.51574</v>
@@ -8241,12 +8533,17 @@
       <c r="M175" s="22" t="n">
         <v>576129.2753</v>
       </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+      <c r="N175" s="22" t="n">
+        <v>770832.317</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>20189.89061</v>
@@ -8267,10 +8564,10 @@
         <v>59808.87374</v>
       </c>
       <c r="I176" s="23" t="n">
-        <v>47545.50281</v>
+        <v>47545.50281000001</v>
       </c>
       <c r="J176" s="33" t="n">
-        <v>16955.64748</v>
+        <v>61209.04902000001</v>
       </c>
       <c r="K176" s="23" t="n">
         <v>183735.6046</v>
@@ -8279,14 +8576,19 @@
         <v>189030.37405</v>
       </c>
       <c r="M176" s="23" t="n">
-        <v>250427.18423</v>
-      </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+        <v>250510.30002</v>
+      </c>
+      <c r="N176" s="23" t="n">
+        <v>269781.398</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>1579.42543</v>
@@ -8321,12 +8623,17 @@
       <c r="M177" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+      <c r="N177" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>298.67961</v>
@@ -8359,14 +8666,19 @@
         <v>113.23383</v>
       </c>
       <c r="M178" s="22" t="n">
-        <v>620.2095800000001</v>
-      </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+        <v>703.3253700000001</v>
+      </c>
+      <c r="N178" s="22" t="n">
+        <v>142.988</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>0</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>0.51697</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>18311.78557</v>
@@ -8470,7 +8792,7 @@
         <v>47339.30034999999</v>
       </c>
       <c r="J181" s="34" t="n">
-        <v>16788.29264</v>
+        <v>61041.69418</v>
       </c>
       <c r="K181" s="35" t="n">
         <v>183264.06969</v>
@@ -8481,18 +8803,23 @@
       <c r="M181" s="35" t="n">
         <v>249806.45768</v>
       </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+      <c r="N181" s="35" t="n">
+        <v>269637.893</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>2177485.81922</v>
       </c>
       <c r="D182" s="23" t="n">
-        <v>2531674.864989999</v>
+        <v>2531674.86499</v>
       </c>
       <c r="E182" s="23" t="n">
         <v>3277057.77859</v>
@@ -8501,32 +8828,37 @@
         <v>3609490.64832</v>
       </c>
       <c r="G182" s="23" t="n">
-        <v>4246298.55326</v>
+        <v>4678547.725260001</v>
       </c>
       <c r="H182" s="33" t="n">
-        <v>4784354.45474</v>
+        <v>5397840.62674</v>
       </c>
       <c r="I182" s="23" t="n">
-        <v>6374677.48212</v>
+        <v>8548398.502390001</v>
       </c>
       <c r="J182" s="33" t="n">
-        <v>9118687.353589999</v>
+        <v>9256349.74501</v>
       </c>
       <c r="K182" s="23" t="n">
         <v>11947313.48292</v>
       </c>
       <c r="L182" s="23" t="n">
-        <v>13330627.40083</v>
+        <v>13330819.79613</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>14107185.04924</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>14107398.89035</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>19779727.499</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>1606182.905</v>
@@ -8541,13 +8873,13 @@
         <v>2870439.62396</v>
       </c>
       <c r="G183" s="23" t="n">
-        <v>3287927.11358</v>
+        <v>3699037.11358</v>
       </c>
       <c r="H183" s="33" t="n">
-        <v>3438326.28495</v>
+        <v>4030673.28495</v>
       </c>
       <c r="I183" s="23" t="n">
-        <v>4858900.75535</v>
+        <v>6923781.777070001</v>
       </c>
       <c r="J183" s="33" t="n">
         <v>7451715.78046</v>
@@ -8556,17 +8888,22 @@
         <v>10359222.55649</v>
       </c>
       <c r="L183" s="23" t="n">
-        <v>11441786.16896</v>
+        <v>11441978.56426</v>
       </c>
       <c r="M183" s="23" t="n">
         <v>12309770.42176</v>
       </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+      <c r="N183" s="23" t="n">
+        <v>17779752.034</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>1601943.5964</v>
@@ -8581,32 +8918,37 @@
         <v>2863654.74033</v>
       </c>
       <c r="G184" s="22" t="n">
-        <v>3273675.17161</v>
+        <v>3684785.17161</v>
       </c>
       <c r="H184" s="21" t="n">
-        <v>3075447.19137</v>
+        <v>3667794.19137</v>
       </c>
       <c r="I184" s="22" t="n">
-        <v>4574590.02536</v>
+        <v>6639471.047080001</v>
       </c>
       <c r="J184" s="21" t="n">
-        <v>7272105.236999999</v>
+        <v>7272105.237</v>
       </c>
       <c r="K184" s="22" t="n">
         <v>10134237.54128</v>
       </c>
       <c r="L184" s="22" t="n">
-        <v>11306704.1326</v>
+        <v>11306896.5279</v>
       </c>
       <c r="M184" s="22" t="n">
         <v>12290717.61847</v>
       </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+      <c r="N184" s="22" t="n">
+        <v>17673337.343</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>4906.63111</v>
@@ -8641,12 +8983,17 @@
       <c r="M185" s="22" t="n">
         <v>22642.07398</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>14390.539</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>667.32251</v>
@@ -8681,12 +9028,17 @@
       <c r="M186" s="22" t="n">
         <v>3590.74403</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>3125.848</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>95150</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>0</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>1.47334</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>2.53065</v>
@@ -8881,12 +9253,17 @@
       <c r="M191" s="23" t="n">
         <v>7036.85383</v>
       </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+      <c r="N191" s="23" t="n">
+        <v>3005.058</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>0</v>
@@ -8921,12 +9298,17 @@
       <c r="M192" s="22" t="n">
         <v>3573.66616</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>2983.438</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>0</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>3463.18767</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>2.53065</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>0</v>
@@ -9081,12 +9478,17 @@
       <c r="M196" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>50696.3178</v>
@@ -9119,14 +9521,19 @@
         <v>279713.41227</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>235752.55761</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>235961.4233</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>286158.302</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>1489.33462</v>
@@ -9147,7 +9554,7 @@
         <v>551081.89703</v>
       </c>
       <c r="I198" s="22" t="n">
-        <v>714362.64963</v>
+        <v>714362.6496300001</v>
       </c>
       <c r="J198" s="21" t="n">
         <v>863910.0594000001</v>
@@ -9161,12 +9568,17 @@
       <c r="M198" s="22" t="n">
         <v>88829.40913</v>
       </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+      <c r="N198" s="22" t="n">
+        <v>114651.07</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>4422.326150000001</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>0</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>151440.049</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>44784.65703</v>
@@ -9281,12 +9703,17 @@
       <c r="M201" s="22" t="n">
         <v>146880.42087</v>
       </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+      <c r="N201" s="22" t="n">
+        <v>20067.183</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>0</v>
@@ -9359,14 +9791,19 @@
         <v>757.33964</v>
       </c>
       <c r="M203" s="22" t="n">
-        <v>42.72761</v>
-      </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+        <v>251.5933</v>
+      </c>
+      <c r="N203" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>0</v>
@@ -9401,12 +9838,17 @@
       <c r="M204" s="23" t="n">
         <v>153118.29974</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>0</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>153118.29974</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>0</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>517510.19993</v>
@@ -9501,19 +9953,19 @@
         <v>677246.63553</v>
       </c>
       <c r="G207" s="23" t="n">
-        <v>759152.9140799999</v>
+        <v>780292.0860799999</v>
       </c>
       <c r="H207" s="33" t="n">
-        <v>634459.7176399999</v>
+        <v>655598.88964</v>
       </c>
       <c r="I207" s="23" t="n">
-        <v>607928.60408</v>
+        <v>716768.60263</v>
       </c>
       <c r="J207" s="33" t="n">
-        <v>645077.1222400001</v>
+        <v>778922.50631</v>
       </c>
       <c r="K207" s="23" t="n">
-        <v>862122.7988199999</v>
+        <v>862122.79882</v>
       </c>
       <c r="L207" s="23" t="n">
         <v>1059121.57119</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>1374335.0777</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>1678166.683</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>517510.19993</v>
@@ -9541,16 +9998,16 @@
         <v>672802.6963099999</v>
       </c>
       <c r="G208" s="22" t="n">
-        <v>752576.7746</v>
+        <v>773715.9466</v>
       </c>
       <c r="H208" s="21" t="n">
-        <v>630025.3685699999</v>
+        <v>651164.54057</v>
       </c>
       <c r="I208" s="22" t="n">
-        <v>598494.67771</v>
+        <v>707334.67626</v>
       </c>
       <c r="J208" s="21" t="n">
-        <v>644983.66038</v>
+        <v>778829.0444499999</v>
       </c>
       <c r="K208" s="22" t="n">
         <v>862028.40577</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>1374335.0777</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>1678166.683</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>0</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>725.2766899999999</v>
@@ -9639,14 +10106,19 @@
         <v>16935.58102</v>
       </c>
       <c r="M210" s="23" t="n">
-        <v>19008.01923</v>
-      </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+        <v>19012.99465</v>
+      </c>
+      <c r="N210" s="23" t="n">
+        <v>32569.248</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>725.2766899999999</v>
@@ -9681,12 +10153,17 @@
       <c r="M211" s="22" t="n">
         <v>17204.7906</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>23583.637</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>0</v>
@@ -9719,14 +10196,19 @@
         <v>1071.09682</v>
       </c>
       <c r="M212" s="22" t="n">
-        <v>1803.22863</v>
-      </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+        <v>1808.20405</v>
+      </c>
+      <c r="N212" s="22" t="n">
+        <v>8985.611000000001</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>2368.58915</v>
@@ -9750,7 +10232,7 @@
         <v>3126.80682</v>
       </c>
       <c r="J213" s="33" t="n">
-        <v>0</v>
+        <v>3817.00735</v>
       </c>
       <c r="K213" s="23" t="n">
         <v>5570.442150000001</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>8163.81937</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>76.17400000000001</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>126.31638</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>2242.27277</v>
@@ -9870,7 +10367,7 @@
         <v>3126.80682</v>
       </c>
       <c r="J216" s="34" t="n">
-        <v>0</v>
+        <v>3817.00735</v>
       </c>
       <c r="K216" s="35" t="n">
         <v>5570.442150000001</v>
@@ -9881,18 +10378,23 @@
       <c r="M216" s="35" t="n">
         <v>8163.81937</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>76.17400000000001</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>6733257.247009999</v>
       </c>
       <c r="D217" s="23" t="n">
-        <v>7315184.834250001</v>
+        <v>7315184.834249999</v>
       </c>
       <c r="E217" s="23" t="n">
         <v>7950147.03179</v>
@@ -9901,32 +10403,37 @@
         <v>8361403.77931</v>
       </c>
       <c r="G217" s="23" t="n">
-        <v>8428238.93275</v>
+        <v>8945219.89144</v>
       </c>
       <c r="H217" s="33" t="n">
-        <v>9510914.34626</v>
+        <v>10219197.07601</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>7960532.57651</v>
+        <v>9823569.824230002</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>9554428.531059999</v>
+        <v>10268493.99943</v>
       </c>
       <c r="K217" s="23" t="n">
         <v>12465574.34492</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>12884050.23829</v>
+        <v>12884541.4062</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>13890904.65003</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>13888806.8491</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>20066576.53</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>4114236.82022</v>
@@ -9941,32 +10448,37 @@
         <v>4300564.18954</v>
       </c>
       <c r="G218" s="23" t="n">
-        <v>3891769.64957</v>
+        <v>4519004.64957</v>
       </c>
       <c r="H218" s="33" t="n">
-        <v>4153545.4902</v>
+        <v>4780780.4902</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>3825325.553319999</v>
+        <v>4806470.55332</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>4567900.43437</v>
+        <v>4939580.146439999</v>
       </c>
       <c r="K218" s="23" t="n">
         <v>4944897.86721</v>
       </c>
       <c r="L218" s="23" t="n">
-        <v>4972291.40907</v>
+        <v>4972761.40907</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>5515818.855059999</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>5522231.355059999</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>5665888.635</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>3378700.59668</v>
@@ -9981,32 +10493,37 @@
         <v>3568684.18353</v>
       </c>
       <c r="G219" s="22" t="n">
-        <v>3156129.18353</v>
+        <v>3783364.18353</v>
       </c>
       <c r="H219" s="21" t="n">
-        <v>3416676.70653</v>
+        <v>4043911.70653</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>3085836.70653</v>
+        <v>4066981.70653</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>3870046.70653</v>
+        <v>4200211.70653</v>
       </c>
       <c r="K219" s="22" t="n">
         <v>4265002</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>4295300</v>
+        <v>4296910</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>5552101.028779999</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>5558361.02878</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>5703183.029</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>3149.57809</v>
@@ -10015,7 +10532,7 @@
         <v>2047.2407</v>
       </c>
       <c r="E220" s="22" t="n">
-        <v>5413.413699999999</v>
+        <v>5413.4137</v>
       </c>
       <c r="F220" s="21" t="n">
         <v>4518.75934</v>
@@ -10036,17 +10553,22 @@
         <v>3448</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>6352.45841</v>
+        <v>7492.45841</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>719700.974</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>719548.474</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>720704.214</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>738685.80163</v>
@@ -10070,10 +10592,10 @@
         <v>740291.2241699999</v>
       </c>
       <c r="J221" s="21" t="n">
-        <v>698581.7278399999</v>
+        <v>740096.43991</v>
       </c>
       <c r="K221" s="22" t="n">
-        <v>683343.8672100001</v>
+        <v>683343.8672099999</v>
       </c>
       <c r="L221" s="22" t="n">
         <v>683343.86748</v>
@@ -10081,12 +10603,17 @@
       <c r="M221" s="22" t="n">
         <v>683418.80028</v>
       </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+      <c r="N221" s="22" t="n">
+        <v>683409.8199999999</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>0</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>506619.68895</v>
@@ -10138,35 +10670,40 @@
         <v>519941.02624</v>
       </c>
       <c r="F223" s="33" t="n">
-        <v>643714.5152</v>
+        <v>643714.5151999999</v>
       </c>
       <c r="G223" s="23" t="n">
-        <v>541298.4932</v>
+        <v>541298.4931999999</v>
       </c>
       <c r="H223" s="33" t="n">
         <v>548358.61837</v>
       </c>
       <c r="I223" s="23" t="n">
-        <v>519655.65166</v>
+        <v>561159.32549</v>
       </c>
       <c r="J223" s="33" t="n">
         <v>568588.6878200001</v>
       </c>
       <c r="K223" s="23" t="n">
-        <v>568959.09971</v>
+        <v>568959.0997099999</v>
       </c>
       <c r="L223" s="23" t="n">
         <v>565294.23786</v>
       </c>
       <c r="M223" s="23" t="n">
-        <v>562226.8639</v>
-      </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+        <v>564394.99733</v>
+      </c>
+      <c r="N223" s="23" t="n">
+        <v>589342.558</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>483326.79729</v>
@@ -10187,7 +10724,7 @@
         <v>484872.11312</v>
       </c>
       <c r="I224" s="22" t="n">
-        <v>484863.86068</v>
+        <v>484872.11312</v>
       </c>
       <c r="J224" s="21" t="n">
         <v>485269.54068</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>484241.0812</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>484241.081</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0.70841</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>0</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>1099.497</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>0</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>11749.461</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>23292.18325</v>
@@ -10427,7 +10994,7 @@
         <v>63485.79684</v>
       </c>
       <c r="I230" s="22" t="n">
-        <v>34791.08257</v>
+        <v>76286.50396</v>
       </c>
       <c r="J230" s="21" t="n">
         <v>83318.43873000001</v>
@@ -10439,14 +11006,19 @@
         <v>75867.60272</v>
       </c>
       <c r="M230" s="22" t="n">
-        <v>77985.78269999998</v>
-      </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+        <v>80153.91613</v>
+      </c>
+      <c r="N230" s="22" t="n">
+        <v>92252.519</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>1750177.34038</v>
@@ -10458,75 +11030,85 @@
         <v>1938740.88723</v>
       </c>
       <c r="F231" s="33" t="n">
-        <v>2486385.852500001</v>
+        <v>2486385.8525</v>
       </c>
       <c r="G231" s="23" t="n">
-        <v>2894527.43955</v>
+        <v>2913257.14832</v>
       </c>
       <c r="H231" s="33" t="n">
-        <v>3564511.64338</v>
+        <v>3583241.35215</v>
       </c>
       <c r="I231" s="23" t="n">
-        <v>3290378.54997</v>
+        <v>3747519.06267</v>
       </c>
       <c r="J231" s="33" t="n">
-        <v>4247273.344029999</v>
+        <v>4465534.54501</v>
       </c>
       <c r="K231" s="23" t="n">
         <v>4149712.90818</v>
       </c>
       <c r="L231" s="23" t="n">
-        <v>4446002.294630001</v>
+        <v>4446005.31094</v>
       </c>
       <c r="M231" s="23" t="n">
-        <v>4274297.01367</v>
-      </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+        <v>4274319.50602</v>
+      </c>
+      <c r="N231" s="23" t="n">
+        <v>5361801.203</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
-        <v>761917.91602</v>
+        <v>761917.9160199999</v>
       </c>
       <c r="D232" s="22" t="n">
         <v>850035.4203299999</v>
       </c>
       <c r="E232" s="22" t="n">
-        <v>991369.4059599999</v>
+        <v>991369.40596</v>
       </c>
       <c r="F232" s="21" t="n">
         <v>1145137.75482</v>
       </c>
       <c r="G232" s="22" t="n">
-        <v>1253768.18882</v>
+        <v>1272497.89759</v>
       </c>
       <c r="H232" s="21" t="n">
-        <v>1354993.89194</v>
+        <v>1373723.60071</v>
       </c>
       <c r="I232" s="22" t="n">
-        <v>988694.3417</v>
+        <v>1445834.8523</v>
       </c>
       <c r="J232" s="21" t="n">
-        <v>1254634.34784</v>
+        <v>1339561.71862</v>
       </c>
       <c r="K232" s="22" t="n">
         <v>1368014.74937</v>
       </c>
       <c r="L232" s="22" t="n">
-        <v>1618785.46746</v>
+        <v>1618786.15797</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>1539340.09975</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>1539362.5921</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>1672873.75</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>178.12778</v>
@@ -10561,12 +11143,17 @@
       <c r="M233" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+      <c r="N233" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
         <v>861969.54528</v>
@@ -10575,7 +11162,7 @@
         <v>771096.2124200001</v>
       </c>
       <c r="E234" s="22" t="n">
-        <v>808092.0601300001</v>
+        <v>808092.06013</v>
       </c>
       <c r="F234" s="21" t="n">
         <v>1091766.84049</v>
@@ -10590,23 +11177,28 @@
         <v>1967871.42132</v>
       </c>
       <c r="J234" s="21" t="n">
-        <v>2644556.27263</v>
+        <v>2777200.11278</v>
       </c>
       <c r="K234" s="22" t="n">
         <v>2259575.0899</v>
       </c>
       <c r="L234" s="22" t="n">
-        <v>2379230.98391</v>
+        <v>2379233.30971</v>
       </c>
       <c r="M234" s="22" t="n">
         <v>2278443.44646</v>
       </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+      <c r="N234" s="22" t="n">
+        <v>3160403.363</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>11193.51451</v>
@@ -10627,7 +11219,7 @@
         <v>11969.3995</v>
       </c>
       <c r="I235" s="22" t="n">
-        <v>11969.3974</v>
+        <v>11969.3995</v>
       </c>
       <c r="J235" s="21" t="n">
         <v>10327.10939</v>
@@ -10641,12 +11233,17 @@
       <c r="M235" s="22" t="n">
         <v>69.86801</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>69.86799999999999</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>114918.23679</v>
@@ -10670,7 +11267,7 @@
         <v>321843.38955</v>
       </c>
       <c r="J236" s="21" t="n">
-        <v>337755.61417</v>
+        <v>338445.60422</v>
       </c>
       <c r="K236" s="22" t="n">
         <v>513503.23684</v>
@@ -10681,18 +11278,23 @@
       <c r="M236" s="22" t="n">
         <v>456443.59945</v>
       </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+      <c r="N236" s="22" t="n">
+        <v>528454.222</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>743181.70864</v>
       </c>
       <c r="D237" s="23" t="n">
-        <v>683998.8834299999</v>
+        <v>683998.88343</v>
       </c>
       <c r="E237" s="23" t="n">
         <v>668482.29013</v>
@@ -10704,29 +11306,34 @@
         <v>544352.55765</v>
       </c>
       <c r="H237" s="33" t="n">
-        <v>891995.8391399999</v>
+        <v>915878.93358</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>1241806.92858</v>
+        <v>1474567.0225</v>
       </c>
       <c r="J237" s="33" t="n">
-        <v>1300156.50157</v>
+        <v>1746373.01922</v>
       </c>
       <c r="K237" s="23" t="n">
         <v>2703574.38403</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>3568649.0733</v>
+        <v>3568713.45456</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>4014622.08397</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>4015462.39929</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>5725487.049</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-1046070.97532</v>
@@ -10741,32 +11348,37 @@
         <v>-1147407.47428</v>
       </c>
       <c r="G238" s="23" t="n">
-        <v>-1094001.9889</v>
+        <v>-1246868.83342</v>
       </c>
       <c r="H238" s="33" t="n">
-        <v>-1534190.62132</v>
+        <v>-1687057.46584</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-1760136.08686</v>
+        <v>-1913002.93138</v>
       </c>
       <c r="J238" s="33" t="n">
-        <v>-2839115.51876</v>
+        <v>-3239333.03333</v>
       </c>
       <c r="K238" s="23" t="n">
-        <v>-3645189.83665</v>
+        <v>-3645189.836649999</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-4046151.90131</v>
+        <v>-4046166.64188</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-5176778.111550001</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-5187170.45495</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-6057817.339</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
         <v>665112.66414</v>
@@ -10781,32 +11393,37 @@
         <v>1414510.44318</v>
       </c>
       <c r="G239" s="23" t="n">
-        <v>1650292.78168</v>
+        <v>1674175.87612</v>
       </c>
       <c r="H239" s="33" t="n">
-        <v>1886693.37649</v>
+        <v>2077995.14755</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>843501.97984</v>
+        <v>1146856.79163</v>
       </c>
       <c r="J239" s="33" t="n">
-        <v>1709625.08203</v>
+        <v>1787750.63427</v>
       </c>
       <c r="K239" s="23" t="n">
-        <v>3743619.922439999</v>
+        <v>3743619.92244</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>3377965.12474</v>
+        <v>3377933.63565</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>4700717.94498</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>4699569.04635</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>8781874.424000001</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>903921.56438</v>
@@ -10821,16 +11438,16 @@
         <v>1723045.5677</v>
       </c>
       <c r="G240" s="22" t="n">
-        <v>2144782.86421</v>
+        <v>2168665.95865</v>
       </c>
       <c r="H240" s="21" t="n">
-        <v>2191549.0884</v>
+        <v>2382850.85946</v>
       </c>
       <c r="I240" s="22" t="n">
-        <v>1966750.61237</v>
+        <v>2479102.73104</v>
       </c>
       <c r="J240" s="21" t="n">
-        <v>2006666.99971</v>
+        <v>2084792.55195</v>
       </c>
       <c r="K240" s="22" t="n">
         <v>4144045.92</v>
@@ -10839,14 +11456,19 @@
         <v>4498694.872389999</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>5419566.802009999</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>5419567.87986</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>10567827.743</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>238808.90024</v>
@@ -10867,7 +11489,7 @@
         <v>304855.71191</v>
       </c>
       <c r="I241" s="22" t="n">
-        <v>1123248.63253</v>
+        <v>1332245.93941</v>
       </c>
       <c r="J241" s="21" t="n">
         <v>297041.91768</v>
@@ -10876,17 +11498,22 @@
         <v>400425.9975599999</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>1120729.74765</v>
+        <v>1120761.23674</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>718848.8570299998</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>719998.8335100001</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>1785953.319</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
         <v>14865942.07637</v>
@@ -10901,29 +11528,32 @@
         <v>20656579.02692</v>
       </c>
       <c r="G242" s="47" t="n">
-        <v>22261904.01579</v>
+        <v>23938954.77941</v>
       </c>
       <c r="H242" s="48" t="n">
-        <v>25233347.0112</v>
+        <v>28110485.70038</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>24832658.20265</v>
+        <v>34485837.23459</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>37118904.40947001</v>
+        <v>39349795.27064999</v>
       </c>
       <c r="K242" s="47" t="n">
-        <v>50949219.39519001</v>
+        <v>50949219.39518999</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>58952866.76686001</v>
+        <v>58953962.38575999</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>62427443.7762</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>62434013.44489001</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>87054109.59900001</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>35</v>
@@ -10957,29 +11590,32 @@
         <v>39</v>
       </c>
       <c r="G244" s="52" t="n">
+        <v>42</v>
+      </c>
+      <c r="H244" s="53" t="n">
+        <v>38</v>
+      </c>
+      <c r="I244" s="52" t="n">
+        <v>42</v>
+      </c>
+      <c r="J244" s="53" t="n">
         <v>41</v>
-      </c>
-      <c r="H244" s="53" t="n">
-        <v>37</v>
-      </c>
-      <c r="I244" s="52" t="n">
-        <v>39</v>
-      </c>
-      <c r="J244" s="53" t="n">
-        <v>39</v>
       </c>
       <c r="K244" s="52" t="n">
         <v>43</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>62</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>68</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>93</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>